--- a/medicine/Soins infirmiers et profession infirmière/Emmanuel_Hirsch_(professeur)/Emmanuel_Hirsch_(professeur).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Emmanuel_Hirsch_(professeur)/Emmanuel_Hirsch_(professeur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Hirsch, né le 25 mai 1953 à Bordeaux est un professeur d'éthique français.
 </t>
@@ -511,16 +523,88 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu un doctorat d’éthique médicale[1], Emmanuel Hirsch rejoint France Culture comme producteur (1983 à 1998)[2]. Il est notamment producteur coordonnateur de l'émission  "Les chemins de la connaissance"[3] et de l'émission "Vivre l'éthique"[4]. Il est également rédacteur en chef de l'émission Sidamag animée par Pascal Sanchez et Carole Gaessler, puis Vivre avec de 1995 à 1997, émissions hebdomadaires de France 3[5].
-En 1995, Alain Cordier (directeur général) et Didier Sicard lui confient la responsabilité de créer une structure d'éthique pour l'AP-HP : l'Espace éthique de l'AP-HP[2] (qu'il dirige  depuis sa création jusqu'en septembre 2022)[6]. Le 4 janvier 2012[7], il devient directeur de l'Espace de réflexion éthique de la région Ile-de-France.
-Université, recherche
-Professeur des universités en éthique médicale à la Faculté de médecine de l'université Paris-Saclay, il assume des fonctions d’enseignement et de recherche jusqu'en septembre 2022 où il est nommé professeur émérite.
-En 2003 lui est confiée la direction du département de Recherche en éthique de l'université Paris-Sud[8].
-En 2020, les travaux de recherche développés (y compris dans le cadre de doctorats), ont permis la création de l'équipe Recherche en éthique et en épistémologie (CESP-INSERM)[9].
-Distinctions
-Emmanuel Hirsch est fait chevalier de la Légion d'honneur en 2013[10] et chevalier des Arts et des Lettres[réf. nécessaire].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu un doctorat d’éthique médicale, Emmanuel Hirsch rejoint France Culture comme producteur (1983 à 1998). Il est notamment producteur coordonnateur de l'émission  "Les chemins de la connaissance" et de l'émission "Vivre l'éthique". Il est également rédacteur en chef de l'émission Sidamag animée par Pascal Sanchez et Carole Gaessler, puis Vivre avec de 1995 à 1997, émissions hebdomadaires de France 3.
+En 1995, Alain Cordier (directeur général) et Didier Sicard lui confient la responsabilité de créer une structure d'éthique pour l'AP-HP : l'Espace éthique de l'AP-HP (qu'il dirige  depuis sa création jusqu'en septembre 2022). Le 4 janvier 2012, il devient directeur de l'Espace de réflexion éthique de la région Ile-de-France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Emmanuel_Hirsch_(professeur)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Hirsch_(professeur)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Université, recherche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur des universités en éthique médicale à la Faculté de médecine de l'université Paris-Saclay, il assume des fonctions d’enseignement et de recherche jusqu'en septembre 2022 où il est nommé professeur émérite.
+En 2003 lui est confiée la direction du département de Recherche en éthique de l'université Paris-Sud.
+En 2020, les travaux de recherche développés (y compris dans le cadre de doctorats), ont permis la création de l'équipe Recherche en éthique et en épistémologie (CESP-INSERM).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emmanuel_Hirsch_(professeur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Hirsch_(professeur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel Hirsch est fait chevalier de la Légion d'honneur en 2013 et chevalier des Arts et des Lettres[réf. nécessaire].
 </t>
         </is>
       </c>
